--- a/BJP/Java Content Pool.xlsx
+++ b/BJP/Java Content Pool.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckhuit/Documents/workspace/git/Java-Textbooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungchau/Documents/workspace/git/Java-Textbooks/BJP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Sub-Topic [SubsectionName]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>Book Identifier [BJ, IJP, BJP]</t>
   </si>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>Purpose of the code</t>
-  </si>
-  <si>
-    <t>Example (Code + Explanation for Lines)</t>
   </si>
   <si>
     <t>Explanation Quality (0-3, 0 means no, 1-3 the higher number the better)</t>
@@ -72,89 +63,134 @@
     <t>BJ</t>
   </si>
   <si>
-    <t>Loops While</t>
-  </si>
-  <si>
     <t xml:space="preserve">chap.6 </t>
   </si>
   <si>
     <t>Loops</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Loop</t>
-    </r>
+    <t>Basic Java Programs</t>
   </si>
   <si>
-    <t>chap. 6</t>
+    <t>Basic Computing Concepts</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given the rate of interest and the initial balance, find the number of years when the balance is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>doubled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> the initial balance?  </t>
-    </r>
+    <t>BJP</t>
   </si>
   <si>
-    <t xml:space="preserve">public class Account {
-        public static void main(String[] args) {
-                final double RATE = 0.05;
-                double balance = 10000;
-                double targetBalance = 20000;
-                int year = 0;
-                // as long as the condition remains true, the statements inside the
-                // while statements are executed.
-                while (balance &lt; targetBalance) {
-                        year++; // new interest variable is created in each iteration. These
-                                        // variables are created in each loop iteration. These
-                                        // statements are executed while the condition is true.
-                        double interest = balance * RATE ;
-                        balance = balance + interest;
-                }
-                System.out.println(year);
-        }
-}
-</t>
+    <t>chap. 1</t>
   </si>
   <si>
-    <t>story&amp;while&amp;arimetic(i)&amp;x=x+i</t>
+    <t>Code file name</t>
+  </si>
+  <si>
+    <t>Hello.java</t>
+  </si>
+  <si>
+    <t>Hello2.java</t>
+  </si>
+  <si>
+    <t>Hello3.java</t>
+  </si>
+  <si>
+    <t>And Now-Java</t>
+  </si>
+  <si>
+    <t>Chapter title</t>
+  </si>
+  <si>
+    <t>DrawFigures1.java</t>
+  </si>
+  <si>
+    <t>Ugly.java</t>
+  </si>
+  <si>
+    <t>Procedural Decomposition</t>
+  </si>
+  <si>
+    <t>DrawBoxes.java</t>
+  </si>
+  <si>
+    <t>DrawBoxes2.java</t>
+  </si>
+  <si>
+    <t>DrawBoxes3.java</t>
+  </si>
+  <si>
+    <t>FooBarBazMumble.java</t>
+  </si>
+  <si>
+    <t>Infinite.java</t>
+  </si>
+  <si>
+    <t>Case Study: DrawFigures</t>
+  </si>
+  <si>
+    <t>DrawFigures2.java</t>
+  </si>
+  <si>
+    <t>DrawFigures3.java</t>
+  </si>
+  <si>
+    <t>Primitive Data and Definite Loops</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>chap. 2</t>
+  </si>
+  <si>
+    <t>BMICalculator.java</t>
+  </si>
+  <si>
+    <t>Time.java</t>
+  </si>
+  <si>
+    <t>for Loop</t>
+  </si>
+  <si>
+    <t>WriteSquares.java</t>
+  </si>
+  <si>
+    <t>WriteSquares2.java</t>
+  </si>
+  <si>
+    <t>ScopeExample.java</t>
+  </si>
+  <si>
+    <t>Managing Complexity</t>
+  </si>
+  <si>
+    <t>DrawV.java</t>
+  </si>
+  <si>
+    <t>DrawCone.java</t>
+  </si>
+  <si>
+    <t>DrawCone2.java</t>
+  </si>
+  <si>
+    <t>Case Study: Hourglass Figure</t>
+  </si>
+  <si>
+    <t>DrawFigure.java</t>
+  </si>
+  <si>
+    <t>DrawFigure2.java</t>
+  </si>
+  <si>
+    <t>BMICalculator2.java</t>
+  </si>
+  <si>
+    <t>Sub-chapter title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,16 +208,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -508,13 +534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
@@ -528,31 +554,31 @@
   <sheetData>
     <row r="1" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -577,34 +603,28 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="247" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="8">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5">
-        <v>242</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -628,410 +648,566 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+    </row>
+    <row r="12" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8">
+        <v>77</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="7"/>
       <c r="J15" s="4"/>
@@ -1057,302 +1233,410 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+    <row r="16" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" ht="26" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
     </row>
     <row r="25" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
@@ -33181,27 +33465,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>249</v>

--- a/BJP/Java Content Pool.xlsx
+++ b/BJP/Java Content Pool.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungchau/Documents/workspace/git/Java-Textbooks/BJP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckhuit/Documents/workspace/git/Java-Textbooks/BJP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Basic Computing Concepts</t>
-  </si>
-  <si>
-    <t>BJP</t>
   </si>
   <si>
     <t>chap. 1</t>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Sub-chapter title</t>
+  </si>
+  <si>
+    <t>BJP (3)</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -554,10 +554,10 @@
   <sheetData>
     <row r="1" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -611,17 +611,17 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="8">
         <v>9</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="4"/>
@@ -653,20 +653,20 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8">
         <v>13</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -698,20 +698,20 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8">
         <v>13</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -743,20 +743,20 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -788,20 +788,20 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8">
         <v>21</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -833,20 +833,20 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8">
         <v>31</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -878,20 +878,20 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8">
         <v>34</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -923,20 +923,20 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8">
         <v>36</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -968,20 +968,20 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8">
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1013,20 +1013,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8">
         <v>39</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1058,20 +1058,20 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8">
         <v>41</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1103,20 +1103,20 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8">
         <v>43</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1145,23 +1145,23 @@
     </row>
     <row r="14" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8">
         <v>75</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1190,23 +1190,23 @@
     </row>
     <row r="15" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="8">
         <v>77</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="7"/>
@@ -1235,23 +1235,23 @@
     </row>
     <row r="16" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="8">
         <v>82</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1280,23 +1280,23 @@
     </row>
     <row r="17" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="8">
         <v>89</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1325,23 +1325,23 @@
     </row>
     <row r="18" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8">
         <v>90</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1370,23 +1370,23 @@
     </row>
     <row r="19" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="8">
         <v>100</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1415,23 +1415,23 @@
     </row>
     <row r="20" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8">
         <v>107</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1460,23 +1460,23 @@
     </row>
     <row r="21" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="8">
         <v>108</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1505,23 +1505,23 @@
     </row>
     <row r="22" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8">
         <v>110</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1550,23 +1550,23 @@
     </row>
     <row r="23" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="8">
         <v>113</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1595,23 +1595,23 @@
     </row>
     <row r="24" spans="1:31" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="8">
         <v>115</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1641,7 +1641,7 @@
     <row r="25" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="4"/>
@@ -1674,7 +1674,7 @@
     <row r="26" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="4"/>
@@ -1707,7 +1707,7 @@
     <row r="27" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="4"/>
@@ -1740,7 +1740,7 @@
     <row r="28" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="4"/>
@@ -1773,7 +1773,7 @@
     <row r="29" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="4"/>
@@ -1806,7 +1806,7 @@
     <row r="30" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="4"/>
@@ -1839,7 +1839,7 @@
     <row r="31" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="4"/>
@@ -1872,7 +1872,7 @@
     <row r="32" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="4"/>
@@ -1905,7 +1905,7 @@
     <row r="33" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
@@ -1938,7 +1938,7 @@
     <row r="34" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
@@ -1971,7 +1971,7 @@
     <row r="35" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
@@ -2004,7 +2004,7 @@
     <row r="36" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
@@ -2037,7 +2037,7 @@
     <row r="37" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
@@ -2070,7 +2070,7 @@
     <row r="38" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
@@ -2103,7 +2103,7 @@
     <row r="39" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
@@ -2136,7 +2136,7 @@
     <row r="40" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
@@ -2169,7 +2169,7 @@
     <row r="41" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
@@ -2202,7 +2202,7 @@
     <row r="42" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
@@ -2235,7 +2235,7 @@
     <row r="43" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
@@ -2268,7 +2268,7 @@
     <row r="44" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
@@ -2301,7 +2301,7 @@
     <row r="45" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="4"/>
@@ -2334,7 +2334,7 @@
     <row r="46" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="4"/>
@@ -2367,7 +2367,7 @@
     <row r="47" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="4"/>
@@ -2400,7 +2400,7 @@
     <row r="48" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="4"/>
@@ -2433,7 +2433,7 @@
     <row r="49" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="4"/>
@@ -2466,7 +2466,7 @@
     <row r="50" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="4"/>
@@ -2499,7 +2499,7 @@
     <row r="51" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="4"/>
@@ -2532,7 +2532,7 @@
     <row r="52" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="4"/>
@@ -2565,7 +2565,7 @@
     <row r="53" spans="1:31" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="4"/>
